--- a/public/data/MaturityDefaulterList.xlsx
+++ b/public/data/MaturityDefaulterList.xlsx
@@ -7,14 +7,22 @@
     <workbookView windowWidth="22451" windowHeight="9767"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Add" sheetId="1" r:id="rId1"/>
+    <sheet name="Navigation" sheetId="2" r:id="rId2"/>
+    <sheet name="MultipleStore" sheetId="3" r:id="rId3"/>
+    <sheet name="Mandatory" sheetId="4" r:id="rId4"/>
+    <sheet name="MandatoryStore" sheetId="5" r:id="rId5"/>
+    <sheet name="FromDatePastAndFuture" sheetId="7" r:id="rId6"/>
+    <sheet name="ToDatePastAndFuture" sheetId="6" r:id="rId7"/>
+    <sheet name="LessType" sheetId="8" r:id="rId8"/>
+    <sheet name="ExcessType" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>testCaseName</t>
   </si>
@@ -58,46 +66,163 @@
     <t>SchemeEntryNumber3</t>
   </si>
   <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Verify if branch is selected and click on filter button</t>
+  </si>
+  <si>
+    <t>Wakad Branch</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>01-14-2025</t>
+  </si>
+  <si>
+    <t>3/18/2025</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>CSUT000000005</t>
+  </si>
+  <si>
+    <t>GDPWAK256202519</t>
+  </si>
+  <si>
+    <t>CSUT000208794</t>
+  </si>
+  <si>
+    <t>GDPWAK59220251</t>
+  </si>
+  <si>
+    <t>CSUT000059370</t>
+  </si>
+  <si>
+    <t>GDPWAK925202518</t>
+  </si>
+  <si>
     <t>TC_01</t>
   </si>
   <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>Verify defaulter list in  scheme maturity  defaulter list</t>
-  </si>
-  <si>
-    <t>Wakad Branch</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>01-14-2025</t>
-  </si>
-  <si>
-    <t>3/18/2025</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>CSUT000000005</t>
-  </si>
-  <si>
-    <t>GDPWAK256202519</t>
-  </si>
-  <si>
-    <t>CSUT000208794</t>
-  </si>
-  <si>
-    <t>GDPWAK59220251</t>
-  </si>
-  <si>
-    <t>CSUT000059370</t>
-  </si>
-  <si>
-    <t>GDPWAK925202518</t>
+    <t>Verify Navigation of scheme maturity  defaulter list</t>
+  </si>
+  <si>
+    <t>Store1</t>
+  </si>
+  <si>
+    <t>Store2</t>
+  </si>
+  <si>
+    <t>StoreMulti</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Verify User should  select multiple Active  stores.</t>
+  </si>
+  <si>
+    <t>HOPN</t>
+  </si>
+  <si>
+    <t>;WAKAD BRANCH</t>
+  </si>
+  <si>
+    <t>HOPN;WAKAD BRANCH</t>
+  </si>
+  <si>
+    <t>Expected Message</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify from date should be mandatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+from date must be filled.</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify to date should be mandatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+To date cannot be less than From date.</t>
+  </si>
+  <si>
+    <t>Verify to date To date should be greater than From date</t>
+  </si>
+  <si>
+    <t>Verify without enter "To Date","Form Date" and "Store"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+To date must be filled</t>
+  </si>
+  <si>
+    <t>Verify Store dropdown should be mandatory</t>
+  </si>
+  <si>
+    <t>This report requires a default or user-defined value for the report parameter 'MonthlySchemeDefaulter_Branch'. To run or subscribe to this report, you must provide a parameter value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify From date field should accept past date </t>
+  </si>
+  <si>
+    <t>WAKAD BRANCH</t>
+  </si>
+  <si>
+    <t>Verify From date field should accept future dates.</t>
+  </si>
+  <si>
+    <t>04-22-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify To date field should accept past date </t>
+  </si>
+  <si>
+    <t>Verify To date field should accept future dates.</t>
+  </si>
+  <si>
+    <t>4/22/2025</t>
+  </si>
+  <si>
+    <t>Verify if user select type as Less</t>
+  </si>
+  <si>
+    <t>Less</t>
+  </si>
+  <si>
+    <t>CSUT000061113</t>
+  </si>
+  <si>
+    <t>BGDPWAK3682025105</t>
+  </si>
+  <si>
+    <t>BGDPWAK8852025106</t>
+  </si>
+  <si>
+    <t>Verify if user select type as Excess</t>
+  </si>
+  <si>
+    <t>Excess</t>
+  </si>
+  <si>
+    <t>CSUT000002041</t>
+  </si>
+  <si>
+    <t>BGDPWAK249202521</t>
   </si>
 </sst>
 </file>
@@ -105,9 +230,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -141,6 +266,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -149,6 +288,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -157,6 +319,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -166,52 +336,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,8 +350,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +382,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,29 +401,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -298,187 +423,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,11 +632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,8 +650,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,17 +671,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,26 +729,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,134 +752,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,7 +898,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -781,6 +906,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1104,13 +1244,14 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="6" max="7" width="11.1111111111111"/>
     <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="25.7777777777778" customWidth="1"/>
     <col min="14" max="14" width="25.7777777777778" customWidth="1"/>
     <col min="15" max="15" width="11.1111111111111"/>
   </cols>
@@ -1159,7 +1300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="100.8" spans="1:14">
+    <row r="2" ht="86.4" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1184,23 +1325,690 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
+      <c r="I2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" ht="43.2" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="100.8" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="43.2" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="100.8" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <cols>
+    <col min="6" max="7" width="11.1111111111111"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="43.2" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="72" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="86.4" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" ht="115.2" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45779</v>
+      </c>
+      <c r="G4" s="6">
+        <v>45659</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" ht="100.8" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" ht="43.2" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="331.2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="43.2" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="86.4" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="100.8" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="43.2" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="72" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="86.4" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" ht="43.2" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="72" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
       <c r="I2" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" ht="43.2" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="72" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
